--- a/Output_Backtest/Garlappi_Robust_drawdowns.xlsx
+++ b/Output_Backtest/Garlappi_Robust_drawdowns.xlsx
@@ -692,7 +692,7 @@
         <v>42369</v>
       </c>
       <c r="B39">
-        <v>-0.0264745358744937</v>
+        <v>-0.0264746540564664</v>
       </c>
     </row>
     <row r="40" spans="1:2">
@@ -700,7 +700,7 @@
         <v>42400</v>
       </c>
       <c r="B40">
-        <v>-0.08345884266393712</v>
+        <v>-0.08345889084127282</v>
       </c>
     </row>
     <row r="41" spans="1:2">
@@ -708,7 +708,7 @@
         <v>42429</v>
       </c>
       <c r="B41">
-        <v>-0.08836694787445984</v>
+        <v>-0.08836708480348336</v>
       </c>
     </row>
     <row r="42" spans="1:2">
@@ -716,7 +716,7 @@
         <v>42460</v>
       </c>
       <c r="B42">
-        <v>-0.02482981702920208</v>
+        <v>-0.02482994859927801</v>
       </c>
     </row>
     <row r="43" spans="1:2">
@@ -724,7 +724,7 @@
         <v>42490</v>
       </c>
       <c r="B43">
-        <v>-0.03394928508256664</v>
+        <v>-0.03394965257896589</v>
       </c>
     </row>
     <row r="44" spans="1:2">
@@ -732,7 +732,7 @@
         <v>42521</v>
       </c>
       <c r="B44">
-        <v>-0.01066912158372765</v>
+        <v>-0.01066936907945423</v>
       </c>
     </row>
     <row r="45" spans="1:2">
@@ -756,7 +756,7 @@
         <v>42613</v>
       </c>
       <c r="B47">
-        <v>-0.01121301783142361</v>
+        <v>-0.01121327044660873</v>
       </c>
     </row>
     <row r="48" spans="1:2">
@@ -764,7 +764,7 @@
         <v>42643</v>
       </c>
       <c r="B48">
-        <v>-0.01455166678814046</v>
+        <v>-0.01455170234480951</v>
       </c>
     </row>
     <row r="49" spans="1:2">
@@ -772,7 +772,7 @@
         <v>42674</v>
       </c>
       <c r="B49">
-        <v>-0.05049202699349196</v>
+        <v>-0.05049202171013564</v>
       </c>
     </row>
     <row r="50" spans="1:2">
@@ -780,7 +780,7 @@
         <v>42704</v>
       </c>
       <c r="B50">
-        <v>-0.07392251414305374</v>
+        <v>-0.0739225761540702</v>
       </c>
     </row>
     <row r="51" spans="1:2">
@@ -788,7 +788,7 @@
         <v>42735</v>
       </c>
       <c r="B51">
-        <v>-0.05314518764079969</v>
+        <v>-0.05314520458207657</v>
       </c>
     </row>
     <row r="52" spans="1:2">
@@ -796,7 +796,7 @@
         <v>42766</v>
       </c>
       <c r="B52">
-        <v>-0.04054465615698342</v>
+        <v>-0.04054473636864044</v>
       </c>
     </row>
     <row r="53" spans="1:2">
@@ -804,7 +804,7 @@
         <v>42794</v>
       </c>
       <c r="B53">
-        <v>-0.009643021868612765</v>
+        <v>-0.0096433549152276</v>
       </c>
     </row>
     <row r="54" spans="1:2">
@@ -812,7 +812,7 @@
         <v>42825</v>
       </c>
       <c r="B54">
-        <v>-0.01094802546218749</v>
+        <v>-0.01094835288433626</v>
       </c>
     </row>
     <row r="55" spans="1:2">
@@ -884,7 +884,7 @@
         <v>43100</v>
       </c>
       <c r="B63">
-        <v>-0.0002923855118097483</v>
+        <v>-0.0002922943165623653</v>
       </c>
     </row>
     <row r="64" spans="1:2">
@@ -900,7 +900,7 @@
         <v>43159</v>
       </c>
       <c r="B65">
-        <v>-0.0281030413036917</v>
+        <v>-0.02810304767838197</v>
       </c>
     </row>
     <row r="66" spans="1:2">
@@ -908,7 +908,7 @@
         <v>43190</v>
       </c>
       <c r="B66">
-        <v>-0.0453261509463938</v>
+        <v>-0.04532603486069681</v>
       </c>
     </row>
     <row r="67" spans="1:2">
@@ -916,7 +916,7 @@
         <v>43220</v>
       </c>
       <c r="B67">
-        <v>-0.05705336851561932</v>
+        <v>-0.05705340403285655</v>
       </c>
     </row>
     <row r="68" spans="1:2">
@@ -924,7 +924,7 @@
         <v>43251</v>
       </c>
       <c r="B68">
-        <v>-0.01979215111101968</v>
+        <v>-0.01979191292026244</v>
       </c>
     </row>
     <row r="69" spans="1:2">
@@ -932,7 +932,7 @@
         <v>43281</v>
       </c>
       <c r="B69">
-        <v>-0.01157283921056916</v>
+        <v>-0.01157257038277724</v>
       </c>
     </row>
     <row r="70" spans="1:2">
@@ -956,7 +956,7 @@
         <v>43373</v>
       </c>
       <c r="B72">
-        <v>-0.01304328119321431</v>
+        <v>-0.01304355755923809</v>
       </c>
     </row>
     <row r="73" spans="1:2">
@@ -964,7 +964,7 @@
         <v>43404</v>
       </c>
       <c r="B73">
-        <v>-0.02476525204428435</v>
+        <v>-0.02476548872341086</v>
       </c>
     </row>
     <row r="74" spans="1:2">
@@ -972,7 +972,7 @@
         <v>43434</v>
       </c>
       <c r="B74">
-        <v>-0.02159013213702462</v>
+        <v>-0.02159036628331567</v>
       </c>
     </row>
     <row r="75" spans="1:2">
@@ -980,7 +980,7 @@
         <v>43465</v>
       </c>
       <c r="B75">
-        <v>-0.08396462505214602</v>
+        <v>-0.08396464724558979</v>
       </c>
     </row>
     <row r="76" spans="1:2">
@@ -996,7 +996,7 @@
         <v>43524</v>
       </c>
       <c r="B77">
-        <v>-0.005105777080645116</v>
+        <v>-0.00510578416334394</v>
       </c>
     </row>
     <row r="78" spans="1:2">
@@ -1004,7 +1004,7 @@
         <v>43555</v>
       </c>
       <c r="B78">
-        <v>-0.01976600878489506</v>
+        <v>-0.01976600817514525</v>
       </c>
     </row>
     <row r="79" spans="1:2">
@@ -1020,7 +1020,7 @@
         <v>43616</v>
       </c>
       <c r="B80">
-        <v>-0.05230827915992685</v>
+        <v>-0.05230812345417123</v>
       </c>
     </row>
     <row r="81" spans="1:2">
@@ -1044,7 +1044,7 @@
         <v>43708</v>
       </c>
       <c r="B83">
-        <v>-0.03632568213110021</v>
+        <v>-0.03632551355723882</v>
       </c>
     </row>
     <row r="84" spans="1:2">
@@ -1052,7 +1052,7 @@
         <v>43738</v>
       </c>
       <c r="B84">
-        <v>-0.01947358923132804</v>
+        <v>-0.01947362924546912</v>
       </c>
     </row>
     <row r="85" spans="1:2">
@@ -1084,7 +1084,7 @@
         <v>43861</v>
       </c>
       <c r="B88">
-        <v>-0.01461227444655196</v>
+        <v>-0.01461235782943386</v>
       </c>
     </row>
     <row r="89" spans="1:2">
@@ -1092,7 +1092,7 @@
         <v>43890</v>
       </c>
       <c r="B89">
-        <v>-0.08862918970707705</v>
+        <v>-0.08862915990202277</v>
       </c>
     </row>
     <row r="90" spans="1:2">
@@ -1100,7 +1100,7 @@
         <v>43921</v>
       </c>
       <c r="B90">
-        <v>-0.1246689076456615</v>
+        <v>-0.1246689729243372</v>
       </c>
     </row>
     <row r="91" spans="1:2">
@@ -1108,7 +1108,7 @@
         <v>43951</v>
       </c>
       <c r="B91">
-        <v>-0.06795105985942494</v>
+        <v>-0.06795091333957916</v>
       </c>
     </row>
     <row r="92" spans="1:2">
@@ -1116,7 +1116,7 @@
         <v>43982</v>
       </c>
       <c r="B92">
-        <v>-0.04120182963952495</v>
+        <v>-0.04120167334198704</v>
       </c>
     </row>
     <row r="93" spans="1:2">
@@ -1124,7 +1124,7 @@
         <v>44012</v>
       </c>
       <c r="B93">
-        <v>-0.01361904556910068</v>
+        <v>-0.01361874444893908</v>
       </c>
     </row>
     <row r="94" spans="1:2">
@@ -1148,7 +1148,7 @@
         <v>44104</v>
       </c>
       <c r="B96">
-        <v>-0.04503703790538328</v>
+        <v>-0.04503700426033228</v>
       </c>
     </row>
     <row r="97" spans="1:2">
@@ -1156,7 +1156,7 @@
         <v>44135</v>
       </c>
       <c r="B97">
-        <v>-0.06595490210862971</v>
+        <v>-0.0659549522393266</v>
       </c>
     </row>
     <row r="98" spans="1:2">
@@ -1164,7 +1164,7 @@
         <v>44165</v>
       </c>
       <c r="B98">
-        <v>-0.0264171759750477</v>
+        <v>-0.0264171629462276</v>
       </c>
     </row>
     <row r="99" spans="1:2">
@@ -1180,7 +1180,7 @@
         <v>44227</v>
       </c>
       <c r="B100">
-        <v>-0.01216105157111929</v>
+        <v>-0.01216114983197602</v>
       </c>
     </row>
     <row r="101" spans="1:2">
@@ -1212,7 +1212,7 @@
         <v>44347</v>
       </c>
       <c r="B104">
-        <v>-0.0007964816519102054</v>
+        <v>-0.0007963903724822155</v>
       </c>
     </row>
     <row r="105" spans="1:2">
@@ -1228,7 +1228,7 @@
         <v>44408</v>
       </c>
       <c r="B106">
-        <v>-0.02055607716179666</v>
+        <v>-0.02055606318355666</v>
       </c>
     </row>
     <row r="107" spans="1:2">
@@ -1244,7 +1244,7 @@
         <v>44469</v>
       </c>
       <c r="B108">
-        <v>-0.0517053163246909</v>
+        <v>-0.05170545668885364</v>
       </c>
     </row>
     <row r="109" spans="1:2">
@@ -1260,7 +1260,7 @@
         <v>44530</v>
       </c>
       <c r="B110">
-        <v>-0.01633338240226231</v>
+        <v>-0.01633332377472229</v>
       </c>
     </row>
     <row r="111" spans="1:2">
@@ -1276,7 +1276,7 @@
         <v>44592</v>
       </c>
       <c r="B112">
-        <v>-0.0611818632824081</v>
+        <v>-0.06118189417326763</v>
       </c>
     </row>
     <row r="113" spans="1:2">
@@ -1284,7 +1284,7 @@
         <v>44620</v>
       </c>
       <c r="B113">
-        <v>-0.09564066363791998</v>
+        <v>-0.09564069830907314</v>
       </c>
     </row>
     <row r="114" spans="1:2">
@@ -1292,7 +1292,7 @@
         <v>44651</v>
       </c>
       <c r="B114">
-        <v>-0.0606973970000583</v>
+        <v>-0.06069744379554596</v>
       </c>
     </row>
     <row r="115" spans="1:2">
@@ -1300,7 +1300,7 @@
         <v>44681</v>
       </c>
       <c r="B115">
-        <v>-0.147057540967468</v>
+        <v>-0.1470575391197092</v>
       </c>
     </row>
     <row r="116" spans="1:2">
@@ -1308,7 +1308,7 @@
         <v>44712</v>
       </c>
       <c r="B116">
-        <v>-0.14566517431561</v>
+        <v>-0.1456651279732921</v>
       </c>
     </row>
     <row r="117" spans="1:2">
@@ -1316,7 +1316,7 @@
         <v>44742</v>
       </c>
       <c r="B117">
-        <v>-0.2191073021661615</v>
+        <v>-0.2191071442782414</v>
       </c>
     </row>
     <row r="118" spans="1:2">
@@ -1324,7 +1324,7 @@
         <v>44773</v>
       </c>
       <c r="B118">
-        <v>-0.1623153971617854</v>
+        <v>-0.1623148334191994</v>
       </c>
     </row>
     <row r="119" spans="1:2">
@@ -1332,7 +1332,7 @@
         <v>44804</v>
       </c>
       <c r="B119">
-        <v>-0.2119058739056899</v>
+        <v>-0.2119053401033575</v>
       </c>
     </row>
     <row r="120" spans="1:2">
@@ -1340,7 +1340,7 @@
         <v>44834</v>
       </c>
       <c r="B120">
-        <v>-0.3133962563849104</v>
+        <v>-0.3133957977833302</v>
       </c>
     </row>
     <row r="121" spans="1:2">
@@ -1348,7 +1348,7 @@
         <v>44865</v>
       </c>
       <c r="B121">
-        <v>-0.2564500002828892</v>
+        <v>-0.2564496114044922</v>
       </c>
     </row>
     <row r="122" spans="1:2">
@@ -1356,7 +1356,7 @@
         <v>44895</v>
       </c>
       <c r="B122">
-        <v>-0.2352326183799047</v>
+        <v>-0.2352322047602912</v>
       </c>
     </row>
     <row r="123" spans="1:2">
@@ -1364,7 +1364,7 @@
         <v>44926</v>
       </c>
       <c r="B123">
-        <v>-0.2800357838460891</v>
+        <v>-0.2800352907207298</v>
       </c>
     </row>
     <row r="124" spans="1:2">
@@ -1372,7 +1372,7 @@
         <v>44957</v>
       </c>
       <c r="B124">
-        <v>-0.2314404324771116</v>
+        <v>-0.2314397669447091</v>
       </c>
     </row>
     <row r="125" spans="1:2">
@@ -1380,7 +1380,7 @@
         <v>44985</v>
       </c>
       <c r="B125">
-        <v>-0.2486792754965804</v>
+        <v>-0.2486786448147598</v>
       </c>
     </row>
     <row r="126" spans="1:2">
@@ -1388,7 +1388,7 @@
         <v>45016</v>
       </c>
       <c r="B126">
-        <v>-0.245430454381716</v>
+        <v>-0.2454298076740671</v>
       </c>
     </row>
     <row r="127" spans="1:2">
@@ -1396,7 +1396,7 @@
         <v>45046</v>
       </c>
       <c r="B127">
-        <v>-0.245935211055129</v>
+        <v>-0.2459345822090856</v>
       </c>
     </row>
     <row r="128" spans="1:2">
@@ -1404,7 +1404,7 @@
         <v>45077</v>
       </c>
       <c r="B128">
-        <v>-0.2496843972634511</v>
+        <v>-0.2496836666949594</v>
       </c>
     </row>
     <row r="129" spans="1:2">
@@ -1412,7 +1412,7 @@
         <v>45107</v>
       </c>
       <c r="B129">
-        <v>-0.20044949087873</v>
+        <v>-0.2004487156926441</v>
       </c>
     </row>
     <row r="130" spans="1:2">
@@ -1420,7 +1420,7 @@
         <v>45138</v>
       </c>
       <c r="B130">
-        <v>-0.1432648187188546</v>
+        <v>-0.1432639800754004</v>
       </c>
     </row>
     <row r="131" spans="1:2">
@@ -1428,7 +1428,7 @@
         <v>45169</v>
       </c>
       <c r="B131">
-        <v>-0.1530490973596378</v>
+        <v>-0.1530482492979814</v>
       </c>
     </row>
     <row r="132" spans="1:2">
@@ -1436,7 +1436,7 @@
         <v>45199</v>
       </c>
       <c r="B132">
-        <v>-0.1604722891034134</v>
+        <v>-0.160471515901887</v>
       </c>
     </row>
     <row r="133" spans="1:2">
@@ -1444,7 +1444,7 @@
         <v>45230</v>
       </c>
       <c r="B133">
-        <v>-0.1963704108532897</v>
+        <v>-0.1963696504412414</v>
       </c>
     </row>
     <row r="134" spans="1:2">
@@ -1452,7 +1452,7 @@
         <v>45260</v>
       </c>
       <c r="B134">
-        <v>-0.1444530561230244</v>
+        <v>-0.1444522189860311</v>
       </c>
     </row>
     <row r="135" spans="1:2">
@@ -1460,7 +1460,7 @@
         <v>45291</v>
       </c>
       <c r="B135">
-        <v>-0.1224549231269395</v>
+        <v>-0.1224540800829391</v>
       </c>
     </row>
     <row r="136" spans="1:2">
@@ -1468,7 +1468,7 @@
         <v>45322</v>
       </c>
       <c r="B136">
-        <v>-0.1020782128542674</v>
+        <v>-0.1020773505064206</v>
       </c>
     </row>
     <row r="137" spans="1:2">
@@ -1476,7 +1476,7 @@
         <v>45351</v>
       </c>
       <c r="B137">
-        <v>-0.06427478349369636</v>
+        <v>-0.0642739029218532</v>
       </c>
     </row>
     <row r="138" spans="1:2">
@@ -1484,7 +1484,7 @@
         <v>45382</v>
       </c>
       <c r="B138">
-        <v>-0.03777779597079456</v>
+        <v>-0.03777687255793716</v>
       </c>
     </row>
     <row r="139" spans="1:2">
@@ -1492,7 +1492,7 @@
         <v>45412</v>
       </c>
       <c r="B139">
-        <v>-0.06544913849482009</v>
+        <v>-0.06544823626432077</v>
       </c>
     </row>
     <row r="140" spans="1:2">
@@ -1500,7 +1500,7 @@
         <v>45443</v>
       </c>
       <c r="B140">
-        <v>-0.0521701316974193</v>
+        <v>-0.05216921743558668</v>
       </c>
     </row>
     <row r="141" spans="1:2">
@@ -1508,7 +1508,7 @@
         <v>45473</v>
       </c>
       <c r="B141">
-        <v>-0.003100166023184768</v>
+        <v>-0.003099164175100758</v>
       </c>
     </row>
     <row r="142" spans="1:2">
@@ -1516,7 +1516,7 @@
         <v>45504</v>
       </c>
       <c r="B142">
-        <v>-0.00311354721549775</v>
+        <v>-0.003112560452619915</v>
       </c>
     </row>
     <row r="143" spans="1:2">
@@ -1524,7 +1524,7 @@
         <v>45535</v>
       </c>
       <c r="B143">
-        <v>-0.00454340913014585</v>
+        <v>-0.004542424410659869</v>
       </c>
     </row>
     <row r="144" spans="1:2">
@@ -1548,7 +1548,7 @@
         <v>45626</v>
       </c>
       <c r="B146">
-        <v>-0.02773395949222448</v>
+        <v>-0.02773395949222443</v>
       </c>
     </row>
   </sheetData>

--- a/Output_Backtest/Garlappi_Robust_drawdowns.xlsx
+++ b/Output_Backtest/Garlappi_Robust_drawdowns.xlsx
@@ -692,7 +692,7 @@
         <v>42369</v>
       </c>
       <c r="B39">
-        <v>-0.0264746540564664</v>
+        <v>-0.02647445466381949</v>
       </c>
     </row>
     <row r="40" spans="1:2">
@@ -700,7 +700,7 @@
         <v>42400</v>
       </c>
       <c r="B40">
-        <v>-0.08345889084127282</v>
+        <v>-0.0834588717565857</v>
       </c>
     </row>
     <row r="41" spans="1:2">
@@ -708,7 +708,7 @@
         <v>42429</v>
       </c>
       <c r="B41">
-        <v>-0.08836708480348336</v>
+        <v>-0.08836710316400741</v>
       </c>
     </row>
     <row r="42" spans="1:2">
@@ -716,7 +716,7 @@
         <v>42460</v>
       </c>
       <c r="B42">
-        <v>-0.02482994859927801</v>
+        <v>-0.02482994105389058</v>
       </c>
     </row>
     <row r="43" spans="1:2">
@@ -724,7 +724,7 @@
         <v>42490</v>
       </c>
       <c r="B43">
-        <v>-0.03394965257896589</v>
+        <v>-0.03394947296019143</v>
       </c>
     </row>
     <row r="44" spans="1:2">
@@ -732,7 +732,7 @@
         <v>42521</v>
       </c>
       <c r="B44">
-        <v>-0.01066936907945423</v>
+        <v>-0.01066919916942871</v>
       </c>
     </row>
     <row r="45" spans="1:2">
@@ -756,7 +756,7 @@
         <v>42613</v>
       </c>
       <c r="B47">
-        <v>-0.01121327044660873</v>
+        <v>-0.01121319324115692</v>
       </c>
     </row>
     <row r="48" spans="1:2">
@@ -764,7 +764,7 @@
         <v>42643</v>
       </c>
       <c r="B48">
-        <v>-0.01455170234480951</v>
+        <v>-0.0145515849619398</v>
       </c>
     </row>
     <row r="49" spans="1:2">
@@ -772,7 +772,7 @@
         <v>42674</v>
       </c>
       <c r="B49">
-        <v>-0.05049202171013564</v>
+        <v>-0.05049216427777202</v>
       </c>
     </row>
     <row r="50" spans="1:2">
@@ -780,7 +780,7 @@
         <v>42704</v>
       </c>
       <c r="B50">
-        <v>-0.0739225761540702</v>
+        <v>-0.07392272577219662</v>
       </c>
     </row>
     <row r="51" spans="1:2">
@@ -788,7 +788,7 @@
         <v>42735</v>
       </c>
       <c r="B51">
-        <v>-0.05314520458207657</v>
+        <v>-0.05314522131068031</v>
       </c>
     </row>
     <row r="52" spans="1:2">
@@ -796,7 +796,7 @@
         <v>42766</v>
       </c>
       <c r="B52">
-        <v>-0.04054473636864044</v>
+        <v>-0.04054486090506852</v>
       </c>
     </row>
     <row r="53" spans="1:2">
@@ -804,7 +804,7 @@
         <v>42794</v>
       </c>
       <c r="B53">
-        <v>-0.0096433549152276</v>
+        <v>-0.009643334491943675</v>
       </c>
     </row>
     <row r="54" spans="1:2">
@@ -812,7 +812,7 @@
         <v>42825</v>
       </c>
       <c r="B54">
-        <v>-0.01094835288433626</v>
+        <v>-0.01094828711497886</v>
       </c>
     </row>
     <row r="55" spans="1:2">
@@ -884,7 +884,7 @@
         <v>43100</v>
       </c>
       <c r="B63">
-        <v>-0.0002922943165623653</v>
+        <v>-0.0002923854914962457</v>
       </c>
     </row>
     <row r="64" spans="1:2">
@@ -900,7 +900,7 @@
         <v>43159</v>
       </c>
       <c r="B65">
-        <v>-0.02810304767838197</v>
+        <v>-0.02810300412824966</v>
       </c>
     </row>
     <row r="66" spans="1:2">
@@ -908,7 +908,7 @@
         <v>43190</v>
       </c>
       <c r="B66">
-        <v>-0.04532603486069681</v>
+        <v>-0.04532608638232437</v>
       </c>
     </row>
     <row r="67" spans="1:2">
@@ -916,7 +916,7 @@
         <v>43220</v>
       </c>
       <c r="B67">
-        <v>-0.05705340403285655</v>
+        <v>-0.05705329707539215</v>
       </c>
     </row>
     <row r="68" spans="1:2">
@@ -924,7 +924,7 @@
         <v>43251</v>
       </c>
       <c r="B68">
-        <v>-0.01979191292026244</v>
+        <v>-0.0197925384749127</v>
       </c>
     </row>
     <row r="69" spans="1:2">
@@ -932,7 +932,7 @@
         <v>43281</v>
       </c>
       <c r="B69">
-        <v>-0.01157257038277724</v>
+        <v>-0.01157277038856621</v>
       </c>
     </row>
     <row r="70" spans="1:2">
@@ -956,7 +956,7 @@
         <v>43373</v>
       </c>
       <c r="B72">
-        <v>-0.01304355755923809</v>
+        <v>-0.01304343215129458</v>
       </c>
     </row>
     <row r="73" spans="1:2">
@@ -964,7 +964,7 @@
         <v>43404</v>
       </c>
       <c r="B73">
-        <v>-0.02476548872341086</v>
+        <v>-0.02476552558575245</v>
       </c>
     </row>
     <row r="74" spans="1:2">
@@ -972,7 +972,7 @@
         <v>43434</v>
       </c>
       <c r="B74">
-        <v>-0.02159036628331567</v>
+        <v>-0.02159033294483463</v>
       </c>
     </row>
     <row r="75" spans="1:2">
@@ -980,7 +980,7 @@
         <v>43465</v>
       </c>
       <c r="B75">
-        <v>-0.08396464724558979</v>
+        <v>-0.08396485976768779</v>
       </c>
     </row>
     <row r="76" spans="1:2">
@@ -996,7 +996,7 @@
         <v>43524</v>
       </c>
       <c r="B77">
-        <v>-0.00510578416334394</v>
+        <v>-0.005105788256341682</v>
       </c>
     </row>
     <row r="78" spans="1:2">
@@ -1004,7 +1004,7 @@
         <v>43555</v>
       </c>
       <c r="B78">
-        <v>-0.01976600817514525</v>
+        <v>-0.01976589711278218</v>
       </c>
     </row>
     <row r="79" spans="1:2">
@@ -1020,7 +1020,7 @@
         <v>43616</v>
       </c>
       <c r="B80">
-        <v>-0.05230812345417123</v>
+        <v>-0.05230809036624681</v>
       </c>
     </row>
     <row r="81" spans="1:2">
@@ -1044,7 +1044,7 @@
         <v>43708</v>
       </c>
       <c r="B83">
-        <v>-0.03632551355723882</v>
+        <v>-0.03632556886755451</v>
       </c>
     </row>
     <row r="84" spans="1:2">
@@ -1052,7 +1052,7 @@
         <v>43738</v>
       </c>
       <c r="B84">
-        <v>-0.01947362924546912</v>
+        <v>-0.01947358811030952</v>
       </c>
     </row>
     <row r="85" spans="1:2">
@@ -1084,7 +1084,7 @@
         <v>43861</v>
       </c>
       <c r="B88">
-        <v>-0.01461235782943386</v>
+        <v>-0.01461245099332173</v>
       </c>
     </row>
     <row r="89" spans="1:2">
@@ -1092,7 +1092,7 @@
         <v>43890</v>
       </c>
       <c r="B89">
-        <v>-0.08862915990202277</v>
+        <v>-0.08862937990390653</v>
       </c>
     </row>
     <row r="90" spans="1:2">
@@ -1100,7 +1100,7 @@
         <v>43921</v>
       </c>
       <c r="B90">
-        <v>-0.1246689729243372</v>
+        <v>-0.1246690660434638</v>
       </c>
     </row>
     <row r="91" spans="1:2">
@@ -1108,7 +1108,7 @@
         <v>43951</v>
       </c>
       <c r="B91">
-        <v>-0.06795091333957916</v>
+        <v>-0.06795131293864384</v>
       </c>
     </row>
     <row r="92" spans="1:2">
@@ -1116,7 +1116,7 @@
         <v>43982</v>
       </c>
       <c r="B92">
-        <v>-0.04120167334198704</v>
+        <v>-0.04120214641651791</v>
       </c>
     </row>
     <row r="93" spans="1:2">
@@ -1124,7 +1124,7 @@
         <v>44012</v>
       </c>
       <c r="B93">
-        <v>-0.01361874444893908</v>
+        <v>-0.01361923732457254</v>
       </c>
     </row>
     <row r="94" spans="1:2">
@@ -1148,7 +1148,7 @@
         <v>44104</v>
       </c>
       <c r="B96">
-        <v>-0.04503700426033228</v>
+        <v>-0.04503691309969055</v>
       </c>
     </row>
     <row r="97" spans="1:2">
@@ -1156,7 +1156,7 @@
         <v>44135</v>
       </c>
       <c r="B97">
-        <v>-0.0659549522393266</v>
+        <v>-0.06595479095551808</v>
       </c>
     </row>
     <row r="98" spans="1:2">
@@ -1164,7 +1164,7 @@
         <v>44165</v>
       </c>
       <c r="B98">
-        <v>-0.0264171629462276</v>
+        <v>-0.02641722755481302</v>
       </c>
     </row>
     <row r="99" spans="1:2">
@@ -1180,7 +1180,7 @@
         <v>44227</v>
       </c>
       <c r="B100">
-        <v>-0.01216114983197602</v>
+        <v>-0.01216108286341406</v>
       </c>
     </row>
     <row r="101" spans="1:2">
@@ -1212,7 +1212,7 @@
         <v>44347</v>
       </c>
       <c r="B104">
-        <v>-0.0007963903724822155</v>
+        <v>-0.0007964035408999835</v>
       </c>
     </row>
     <row r="105" spans="1:2">
@@ -1228,7 +1228,7 @@
         <v>44408</v>
       </c>
       <c r="B106">
-        <v>-0.02055606318355666</v>
+        <v>-0.0205559979393772</v>
       </c>
     </row>
     <row r="107" spans="1:2">
@@ -1244,7 +1244,7 @@
         <v>44469</v>
       </c>
       <c r="B108">
-        <v>-0.05170545668885364</v>
+        <v>-0.05170546494337018</v>
       </c>
     </row>
     <row r="109" spans="1:2">
@@ -1260,7 +1260,7 @@
         <v>44530</v>
       </c>
       <c r="B110">
-        <v>-0.01633332377472229</v>
+        <v>-0.01633337608993541</v>
       </c>
     </row>
     <row r="111" spans="1:2">
@@ -1276,7 +1276,7 @@
         <v>44592</v>
       </c>
       <c r="B112">
-        <v>-0.06118189417326763</v>
+        <v>-0.06118192643584084</v>
       </c>
     </row>
     <row r="113" spans="1:2">
@@ -1284,7 +1284,7 @@
         <v>44620</v>
       </c>
       <c r="B113">
-        <v>-0.09564069830907314</v>
+        <v>-0.09564074351715966</v>
       </c>
     </row>
     <row r="114" spans="1:2">
@@ -1292,7 +1292,7 @@
         <v>44651</v>
       </c>
       <c r="B114">
-        <v>-0.06069744379554596</v>
+        <v>-0.06069755476294813</v>
       </c>
     </row>
     <row r="115" spans="1:2">
@@ -1300,7 +1300,7 @@
         <v>44681</v>
       </c>
       <c r="B115">
-        <v>-0.1470575391197092</v>
+        <v>-0.1470576299950322</v>
       </c>
     </row>
     <row r="116" spans="1:2">
@@ -1308,7 +1308,7 @@
         <v>44712</v>
       </c>
       <c r="B116">
-        <v>-0.1456651279732921</v>
+        <v>-0.1456652193936412</v>
       </c>
     </row>
     <row r="117" spans="1:2">
@@ -1316,7 +1316,7 @@
         <v>44742</v>
       </c>
       <c r="B117">
-        <v>-0.2191071442782414</v>
+        <v>-0.2191072830339629</v>
       </c>
     </row>
     <row r="118" spans="1:2">
@@ -1324,7 +1324,7 @@
         <v>44773</v>
       </c>
       <c r="B118">
-        <v>-0.1623148334191994</v>
+        <v>-0.1623152818953254</v>
       </c>
     </row>
     <row r="119" spans="1:2">
@@ -1332,7 +1332,7 @@
         <v>44804</v>
       </c>
       <c r="B119">
-        <v>-0.2119053401033575</v>
+        <v>-0.2119058453737073</v>
       </c>
     </row>
     <row r="120" spans="1:2">
@@ -1340,7 +1340,7 @@
         <v>44834</v>
       </c>
       <c r="B120">
-        <v>-0.3133957977833302</v>
+        <v>-0.3133962682128875</v>
       </c>
     </row>
     <row r="121" spans="1:2">
@@ -1348,7 +1348,7 @@
         <v>44865</v>
       </c>
       <c r="B121">
-        <v>-0.2564496114044922</v>
+        <v>-0.2564501507146336</v>
       </c>
     </row>
     <row r="122" spans="1:2">
@@ -1356,7 +1356,7 @@
         <v>44895</v>
       </c>
       <c r="B122">
-        <v>-0.2352322047602912</v>
+        <v>-0.2352326872427548</v>
       </c>
     </row>
     <row r="123" spans="1:2">
@@ -1364,7 +1364,7 @@
         <v>44926</v>
       </c>
       <c r="B123">
-        <v>-0.2800352907207298</v>
+        <v>-0.280035817836071</v>
       </c>
     </row>
     <row r="124" spans="1:2">
@@ -1372,7 +1372,7 @@
         <v>44957</v>
       </c>
       <c r="B124">
-        <v>-0.2314397669447091</v>
+        <v>-0.2314404230446074</v>
       </c>
     </row>
     <row r="125" spans="1:2">
@@ -1380,7 +1380,7 @@
         <v>44985</v>
       </c>
       <c r="B125">
-        <v>-0.2486786448147598</v>
+        <v>-0.2486792551274889</v>
       </c>
     </row>
     <row r="126" spans="1:2">
@@ -1388,7 +1388,7 @@
         <v>45016</v>
       </c>
       <c r="B126">
-        <v>-0.2454298076740671</v>
+        <v>-0.2454304566649866</v>
       </c>
     </row>
     <row r="127" spans="1:2">
@@ -1396,7 +1396,7 @@
         <v>45046</v>
       </c>
       <c r="B127">
-        <v>-0.2459345822090856</v>
+        <v>-0.2459352191895508</v>
       </c>
     </row>
     <row r="128" spans="1:2">
@@ -1404,7 +1404,7 @@
         <v>45077</v>
       </c>
       <c r="B128">
-        <v>-0.2496836666949594</v>
+        <v>-0.2496842514529796</v>
       </c>
     </row>
     <row r="129" spans="1:2">
@@ -1412,7 +1412,7 @@
         <v>45107</v>
       </c>
       <c r="B129">
-        <v>-0.2004487156926441</v>
+        <v>-0.2004491900583296</v>
       </c>
     </row>
     <row r="130" spans="1:2">
@@ -1420,7 +1420,7 @@
         <v>45138</v>
       </c>
       <c r="B130">
-        <v>-0.1432639800754004</v>
+        <v>-0.1432645274030505</v>
       </c>
     </row>
     <row r="131" spans="1:2">
@@ -1428,7 +1428,7 @@
         <v>45169</v>
       </c>
       <c r="B131">
-        <v>-0.1530482492979814</v>
+        <v>-0.1530488445770165</v>
       </c>
     </row>
     <row r="132" spans="1:2">
@@ -1436,7 +1436,7 @@
         <v>45199</v>
       </c>
       <c r="B132">
-        <v>-0.160471515901887</v>
+        <v>-0.1604719911901918</v>
       </c>
     </row>
     <row r="133" spans="1:2">
@@ -1444,7 +1444,7 @@
         <v>45230</v>
       </c>
       <c r="B133">
-        <v>-0.1963696504412414</v>
+        <v>-0.1963701243212194</v>
       </c>
     </row>
     <row r="134" spans="1:2">
@@ -1452,7 +1452,7 @@
         <v>45260</v>
       </c>
       <c r="B134">
-        <v>-0.1444522189860311</v>
+        <v>-0.1444527299669715</v>
       </c>
     </row>
     <row r="135" spans="1:2">
@@ -1460,7 +1460,7 @@
         <v>45291</v>
       </c>
       <c r="B135">
-        <v>-0.1224540800829391</v>
+        <v>-0.1224546042023973</v>
       </c>
     </row>
     <row r="136" spans="1:2">
@@ -1468,7 +1468,7 @@
         <v>45322</v>
       </c>
       <c r="B136">
-        <v>-0.1020773505064206</v>
+        <v>-0.1020778867960003</v>
       </c>
     </row>
     <row r="137" spans="1:2">
@@ -1476,7 +1476,7 @@
         <v>45351</v>
       </c>
       <c r="B137">
-        <v>-0.0642739029218532</v>
+        <v>-0.06427447897466033</v>
       </c>
     </row>
     <row r="138" spans="1:2">
@@ -1484,7 +1484,7 @@
         <v>45382</v>
       </c>
       <c r="B138">
-        <v>-0.03777687255793716</v>
+        <v>-0.0377774713140626</v>
       </c>
     </row>
     <row r="139" spans="1:2">
@@ -1492,7 +1492,7 @@
         <v>45412</v>
       </c>
       <c r="B139">
-        <v>-0.06544823626432077</v>
+        <v>-0.0654488301048467</v>
       </c>
     </row>
     <row r="140" spans="1:2">
@@ -1500,7 +1500,7 @@
         <v>45443</v>
       </c>
       <c r="B140">
-        <v>-0.05216921743558668</v>
+        <v>-0.05216981911582755</v>
       </c>
     </row>
     <row r="141" spans="1:2">
@@ -1508,7 +1508,7 @@
         <v>45473</v>
       </c>
       <c r="B141">
-        <v>-0.003099164175100758</v>
+        <v>-0.003099787712091717</v>
       </c>
     </row>
     <row r="142" spans="1:2">
@@ -1516,7 +1516,7 @@
         <v>45504</v>
       </c>
       <c r="B142">
-        <v>-0.003112560452619915</v>
+        <v>-0.003113196807692703</v>
       </c>
     </row>
     <row r="143" spans="1:2">
@@ -1524,7 +1524,7 @@
         <v>45535</v>
       </c>
       <c r="B143">
-        <v>-0.004542424410659869</v>
+        <v>-0.004543060470490901</v>
       </c>
     </row>
     <row r="144" spans="1:2">
@@ -1548,7 +1548,7 @@
         <v>45626</v>
       </c>
       <c r="B146">
-        <v>-0.02773395949222443</v>
+        <v>-0.01057863910662098</v>
       </c>
     </row>
   </sheetData>
